--- a/biology/Zoologie/Anotheca_spinosa/Anotheca_spinosa.xlsx
+++ b/biology/Zoologie/Anotheca_spinosa/Anotheca_spinosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anotheca spinosa, unique représentant du genre Anotheca, est une espèce d'amphibiens de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anotheca spinosa, unique représentant du genre Anotheca, est une espèce d'amphibiens de la famille des Hylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre en Amérique centrale entre 95 et 2 068 m d'altitude[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre en Amérique centrale entre 95 et 2 068 m d'altitude :
 dans le Sud du Mexique dans les États de Veracruz, de Puebla, du Chiapas et d'Oaxaca ;
 au Honduras ;
 au Costa Rica ;
@@ -545,7 +559,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit dans les forêts humides où elle fréquente les Bromeliaceae.
 </t>
@@ -576,9 +592,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anotheca spinosa mesure 68 mm pour les mâles et 80 mm pour les femelles[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anotheca spinosa mesure 68 mm pour les mâles et 80 mm pour les femelles.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Smith, 1939 : Mexican Herpetological Novelties. Proceedings of the Biological Society of Washington, vol. 52, p. 187-195 (texte intégral).
 Steindachner, 1864 : Batrachologische Mittheilungen. Verhandlungen der Kaiserlich-Königlichen Zoologisch-Botanischen Gesellschaft in Wien, vol. 14, p. 239–288 (texte intégral).</t>
